--- a/JavaTopics.xlsx
+++ b/JavaTopics.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Sr.No</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>programs</t>
+  </si>
+  <si>
+    <t>Rename</t>
   </si>
   <si>
     <t xml:space="preserve">The History and Evolution of Java,Java Envirounment and memory management -heap,stack</t>
@@ -743,7 +746,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" workbookViewId="0">
       <selection activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -765,19 +768,22 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -785,13 +791,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -799,13 +805,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -813,13 +819,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -827,13 +833,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -841,13 +847,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -855,13 +861,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -869,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -883,10 +889,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -897,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -911,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -925,10 +931,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -939,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -953,10 +959,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -967,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -981,13 +987,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -995,13 +1001,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" ht="28.5">
@@ -1009,13 +1015,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1023,13 +1029,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1037,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1051,13 +1057,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1065,13 +1071,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -1079,13 +1085,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1093,13 +1099,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1107,13 +1113,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1121,13 +1127,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1135,13 +1141,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1149,13 +1155,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -1163,13 +1169,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1177,13 +1183,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
